--- a/Excel/Accountsetupnegativescenarios.xlsx
+++ b/Excel/Accountsetupnegativescenarios.xlsx
@@ -484,7 +484,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
